--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N2">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O2">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P2">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q2">
-        <v>64.11780484145994</v>
+        <v>88.60597205307589</v>
       </c>
       <c r="R2">
-        <v>64.11780484145994</v>
+        <v>797.453748477683</v>
       </c>
       <c r="S2">
-        <v>0.0008004006987894823</v>
+        <v>0.000937735087382493</v>
       </c>
       <c r="T2">
-        <v>0.0008004006987894823</v>
+        <v>0.000937735087382493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N3">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P3">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q3">
-        <v>146.5158151003942</v>
+        <v>170.0548020336762</v>
       </c>
       <c r="R3">
-        <v>146.5158151003942</v>
+        <v>1530.493218303086</v>
       </c>
       <c r="S3">
-        <v>0.001828998373853185</v>
+        <v>0.001799724679385492</v>
       </c>
       <c r="T3">
-        <v>0.001828998373853185</v>
+        <v>0.001799724679385493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N4">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O4">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P4">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q4">
-        <v>151.9682370587934</v>
+        <v>183.5233807254575</v>
       </c>
       <c r="R4">
-        <v>151.9682370587934</v>
+        <v>1651.710426529118</v>
       </c>
       <c r="S4">
-        <v>0.001897062499822387</v>
+        <v>0.001942265396718745</v>
       </c>
       <c r="T4">
-        <v>0.001897062499822387</v>
+        <v>0.001942265396718745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N5">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O5">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P5">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q5">
-        <v>123.6620805578515</v>
+        <v>162.7290427450615</v>
       </c>
       <c r="R5">
-        <v>123.6620805578515</v>
+        <v>1464.561384705554</v>
       </c>
       <c r="S5">
-        <v>0.001543708739514792</v>
+        <v>0.001722194673591558</v>
       </c>
       <c r="T5">
-        <v>0.001543708739514792</v>
+        <v>0.001722194673591558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N6">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O6">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P6">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q6">
-        <v>107.0093871604591</v>
+        <v>137.5699656730264</v>
       </c>
       <c r="R6">
-        <v>107.0093871604591</v>
+        <v>1238.129691057237</v>
       </c>
       <c r="S6">
-        <v>0.001335828456261845</v>
+        <v>0.001455931025781503</v>
       </c>
       <c r="T6">
-        <v>0.001335828456261845</v>
+        <v>0.001455931025781502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N7">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P7">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q7">
-        <v>244.5275165295462</v>
+        <v>264.0277256288393</v>
       </c>
       <c r="R7">
-        <v>244.5275165295462</v>
+        <v>2376.249530659554</v>
       </c>
       <c r="S7">
-        <v>0.003052506173401444</v>
+        <v>0.002794259310373039</v>
       </c>
       <c r="T7">
-        <v>0.003052506173401444</v>
+        <v>0.002794259310373038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N8">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O8">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P8">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q8">
-        <v>253.6273341816199</v>
+        <v>284.9390915939113</v>
       </c>
       <c r="R8">
-        <v>253.6273341816199</v>
+        <v>2564.451824345202</v>
       </c>
       <c r="S8">
-        <v>0.003166101771778309</v>
+        <v>0.003015568564548343</v>
       </c>
       <c r="T8">
-        <v>0.003166101771778309</v>
+        <v>0.003015568564548342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H9">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J9">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N9">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O9">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P9">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q9">
-        <v>206.3857845446116</v>
+        <v>252.6537241872674</v>
       </c>
       <c r="R9">
-        <v>206.3857845446116</v>
+        <v>2273.883517685406</v>
       </c>
       <c r="S9">
-        <v>0.002576372141531995</v>
+        <v>0.00267388593159771</v>
       </c>
       <c r="T9">
-        <v>0.002576372141531995</v>
+        <v>0.00267388593159771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H10">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N10">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O10">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P10">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q10">
-        <v>10320.94211683858</v>
+        <v>13411.81751610318</v>
       </c>
       <c r="R10">
-        <v>10320.94211683858</v>
+        <v>120706.3576449286</v>
       </c>
       <c r="S10">
-        <v>0.1288392405652311</v>
+        <v>0.141940002225668</v>
       </c>
       <c r="T10">
-        <v>0.1288392405652311</v>
+        <v>0.141940002225668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H11">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I11">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J11">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N11">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P11">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q11">
-        <v>23584.42012467001</v>
+        <v>25740.2962776203</v>
       </c>
       <c r="R11">
-        <v>23584.42012467001</v>
+        <v>231662.6664985827</v>
       </c>
       <c r="S11">
-        <v>0.2944109891941332</v>
+        <v>0.2724148092939703</v>
       </c>
       <c r="T11">
-        <v>0.2944109891941332</v>
+        <v>0.2724148092939703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H12">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I12">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J12">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N12">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O12">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P12">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q12">
-        <v>24462.08790460047</v>
+        <v>27778.96382372253</v>
       </c>
       <c r="R12">
-        <v>24462.08790460047</v>
+        <v>250010.6744135027</v>
       </c>
       <c r="S12">
-        <v>0.3053671644109601</v>
+        <v>0.2939904440417374</v>
       </c>
       <c r="T12">
-        <v>0.3053671644109601</v>
+        <v>0.2939904440417374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H13">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I13">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J13">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N13">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O13">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P13">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q13">
-        <v>19905.69044965379</v>
+        <v>24631.43482653274</v>
       </c>
       <c r="R13">
-        <v>19905.69044965379</v>
+        <v>221682.9134387946</v>
       </c>
       <c r="S13">
-        <v>0.2484883658320084</v>
+        <v>0.2606795022301552</v>
       </c>
       <c r="T13">
-        <v>0.2484883658320084</v>
+        <v>0.2606795022301551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H14">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I14">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J14">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N14">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O14">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P14">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q14">
-        <v>70.69936915188025</v>
+        <v>202.5378723976838</v>
       </c>
       <c r="R14">
-        <v>70.69936915188025</v>
+        <v>1822.840851579154</v>
       </c>
       <c r="S14">
-        <v>0.0008825602282090234</v>
+        <v>0.002143499643086564</v>
       </c>
       <c r="T14">
-        <v>0.0008825602282090234</v>
+        <v>0.002143499643086564</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H15">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I15">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J15">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N15">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P15">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q15">
-        <v>161.5553702124456</v>
+        <v>388.7157603132964</v>
       </c>
       <c r="R15">
-        <v>161.5553702124456</v>
+        <v>3498.441842819668</v>
       </c>
       <c r="S15">
-        <v>0.002016741395482414</v>
+        <v>0.004113858231203587</v>
       </c>
       <c r="T15">
-        <v>0.002016741395482414</v>
+        <v>0.004113858231203587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H16">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I16">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J16">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N16">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O16">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P16">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q16">
-        <v>167.5674723697457</v>
+        <v>419.5025934041871</v>
       </c>
       <c r="R16">
-        <v>167.5674723697457</v>
+        <v>3775.523340637683</v>
       </c>
       <c r="S16">
-        <v>0.002091792167725713</v>
+        <v>0.004439681569628487</v>
       </c>
       <c r="T16">
-        <v>0.002091792167725713</v>
+        <v>0.004439681569628488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.3807919958291</v>
+        <v>67.02347933333333</v>
       </c>
       <c r="H17">
-        <v>28.3807919958291</v>
+        <v>201.070438</v>
       </c>
       <c r="I17">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="J17">
-        <v>0.006693261142713747</v>
+        <v>0.01463367753909034</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N17">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O17">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P17">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q17">
-        <v>136.3557455696892</v>
+        <v>371.9703461427391</v>
       </c>
       <c r="R17">
-        <v>136.3557455696892</v>
+        <v>3347.733115284652</v>
       </c>
       <c r="S17">
-        <v>0.001702167351296598</v>
+        <v>0.003936638095171701</v>
       </c>
       <c r="T17">
-        <v>0.001702167351296598</v>
+        <v>0.003936638095171701</v>
       </c>
     </row>
   </sheetData>
